--- a/meta/program/BlancoDbSqlInfoStructure.xlsx
+++ b/meta/program/BlancoDbSqlInfoStructure.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbCommon/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C17276C2-9875-F54F-A328-31F41372B7D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773042C0-A8B2-6E4F-BED7-05DFEF893173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="64000" windowHeight="21140" tabRatio="640"/>
+    <workbookView xWindow="18340" yWindow="460" windowWidth="18020" windowHeight="19880" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -340,11 +340,37 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>dynamicConditionList</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;blanco.dbmetadata.valueobject.BlancoDbMetaDataColumnStructure&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SQL動的条件定義のリスト</t>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">ドウテキジョウケｎ </t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>java.util.List&lt;blanco.db.common.valueobject.BlancoDbDynamicConditionStructure&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;blanco.db.common.valueobject.BlancoDbDynamicConditionStructure&gt;()</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -833,12 +859,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,12 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,14 +1217,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1265,12 +1291,12 @@
         <v>9</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1371,23 +1397,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="53"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="53"/>
+      <c r="A20" s="49"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1424,29 +1450,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="50" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="49"/>
+      <c r="B26" s="49"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1467,7 +1493,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="20">
-        <f t="shared" ref="A28:A41" si="0">A27+1</f>
+        <f t="shared" ref="A28:A43" si="0">A27+1</f>
         <v>2</v>
       </c>
       <c r="B28" s="30" t="s">
@@ -1494,10 +1520,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="34"/>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="55"/>
+      <c r="F29" s="51"/>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="20">
@@ -1542,7 +1568,7 @@
         <v>38</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D32" s="34" t="s">
         <v>40</v>
@@ -1566,10 +1592,10 @@
       <c r="D33" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="55"/>
+      <c r="F33" s="51"/>
     </row>
     <row r="34" spans="1:6" ht="27.5" customHeight="1">
       <c r="A34" s="20">
@@ -1585,10 +1611,10 @@
       <c r="D34" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="55"/>
+      <c r="F34" s="51"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="20">
@@ -1621,10 +1647,10 @@
         <v>32</v>
       </c>
       <c r="D36" s="34"/>
-      <c r="E36" s="55" t="s">
+      <c r="E36" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="55"/>
+      <c r="F36" s="51"/>
     </row>
     <row r="37" spans="1:6" ht="32" customHeight="1">
       <c r="A37" s="20">
@@ -1640,10 +1666,10 @@
       <c r="D37" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="55" t="s">
+      <c r="E37" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="55"/>
+      <c r="F37" s="51"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="20">
@@ -1723,7 +1749,7 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="20">
-        <f>A41+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B42" s="36" t="s">
@@ -1741,55 +1767,74 @@
       <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="48"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="40"/>
+      <c r="A43" s="20">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F43" s="38"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="48"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D59">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D60" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C13" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>adjustDefaultValue</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C12" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>adjustFiledName</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>createToString</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C9" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>accessScope2</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="C10" xr:uid="{00000000-0002-0000-0000-000005000000}">
       <formula1>isAbstract</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1803,7 +1848,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/meta/program/BlancoDbSqlInfoStructure.xlsx
+++ b/meta/program/BlancoDbSqlInfoStructure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbCommon/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773042C0-A8B2-6E4F-BED7-05DFEF893173}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D70F8AF-FAFD-7445-BE63-0570A39C9160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="18340" yWindow="460" windowWidth="18020" windowHeight="19880" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -731,7 +731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -808,9 +808,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -859,25 +856,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1223,8 +1226,8 @@
   </sheetPr>
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1291,12 +1294,12 @@
         <v>9</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1400,20 +1403,20 @@
       <c r="A19" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="55"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="49"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="55"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1456,13 +1459,13 @@
       <c r="B25" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="54" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="28"/>
@@ -1470,9 +1473,9 @@
     <row r="26" spans="1:6">
       <c r="A26" s="49"/>
       <c r="B26" s="49"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1492,325 +1495,325 @@
       <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="20">
+      <c r="A28" s="56">
         <f t="shared" ref="A28:A43" si="0">A27+1</f>
         <v>2</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B28" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="32" t="s">
+      <c r="D28" s="33"/>
+      <c r="E28" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="31"/>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" ht="56.5" customHeight="1">
-      <c r="A29" s="20">
+      <c r="A29" s="56">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="34"/>
-      <c r="E29" s="51" t="s">
+      <c r="D29" s="33"/>
+      <c r="E29" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="51"/>
+      <c r="F29" s="53"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="20">
+      <c r="A30" s="56">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34" t="s">
+      <c r="D30" s="33"/>
+      <c r="E30" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="35"/>
+      <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="20">
+      <c r="A31" s="56">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34" t="s">
+      <c r="D31" s="33"/>
+      <c r="E31" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F31" s="35"/>
+      <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="20">
+      <c r="A32" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="34" t="s">
+      <c r="E32" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="35"/>
+      <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" ht="27" customHeight="1">
-      <c r="A33" s="20">
+      <c r="A33" s="56">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D33" s="34" t="s">
+      <c r="D33" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="51" t="s">
+      <c r="E33" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="51"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" ht="27.5" customHeight="1">
-      <c r="A34" s="20">
+      <c r="A34" s="56">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="34" t="s">
+      <c r="D34" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="51"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="20">
+      <c r="A35" s="56">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="E35" s="34" t="s">
+      <c r="E35" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="35"/>
+      <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" ht="41.5" customHeight="1">
-      <c r="A36" s="20">
+      <c r="A36" s="56">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="34"/>
-      <c r="E36" s="51" t="s">
+      <c r="D36" s="33"/>
+      <c r="E36" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="51"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" ht="32" customHeight="1">
-      <c r="A37" s="20">
+      <c r="A37" s="56">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B37" s="36" t="s">
+      <c r="B37" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C37" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="51" t="s">
+      <c r="E37" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="51"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="20">
+      <c r="A38" s="56">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B38" s="36" t="s">
+      <c r="B38" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C38" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="37" t="s">
+      <c r="D38" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="E38" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="38"/>
+      <c r="F38" s="37"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="20">
+      <c r="A39" s="56">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="37" t="s">
+      <c r="C39" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="37" t="s">
+      <c r="D39" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E39" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F39" s="38"/>
+      <c r="F39" s="37"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="20">
-        <f>A39+1</f>
+      <c r="A40" s="56">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="37" t="s">
+      <c r="C40" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="47" t="s">
+      <c r="D40" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="37" t="s">
+      <c r="E40" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="38"/>
+      <c r="F40" s="37"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="20">
+      <c r="A41" s="56">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="37" t="s">
+      <c r="D41" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="37" t="s">
+      <c r="E41" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F41" s="38"/>
+      <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="20">
+      <c r="A42" s="56">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="D42" s="37" t="s">
+      <c r="D42" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="E42" s="37" t="s">
+      <c r="E42" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="38"/>
+      <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="20">
+      <c r="A43" s="56">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="37" t="s">
+      <c r="D43" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="37" t="s">
+      <c r="E43" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="F43" s="38"/>
+      <c r="F43" s="37"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="48"/>
-      <c r="B44" s="39"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
       <c r="E44" s="25"/>
-      <c r="F44" s="40"/>
+      <c r="F44" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
@@ -1887,48 +1890,48 @@
       <c r="M1" s="3"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="41" t="s">
+      <c r="J3" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="B4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="J4" s="43"/>
+      <c r="B4" s="41"/>
+      <c r="D4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="J4" s="42"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="B6" s="46"/>
+      <c r="B6" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4"/>

--- a/meta/program/BlancoDbSqlInfoStructure.xlsx
+++ b/meta/program/BlancoDbSqlInfoStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbCommon/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D70F8AF-FAFD-7445-BE63-0570A39C9160}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9EAEA-1C5C-C04A-A7BD-660A1D1FC44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18340" yWindow="460" windowWidth="18020" windowHeight="19880" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29860" yWindow="460" windowWidth="18020" windowHeight="19880" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -349,21 +349,52 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>SQL動的条件定義のリスト</t>
+    <t>java.util.List&lt;blanco.db.common.valueobject.BlancoDbDynamicConditionStructure&gt;</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>new java.util.ArrayList&lt;blanco.db.common.valueobject.BlancoDbDynamicConditionStructure&gt;()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SQL動的条件式定義のリスト</t>
     <rPh sb="3" eb="7">
       <t xml:space="preserve">ドウテキジョウケｎ </t>
     </rPh>
-    <rPh sb="7" eb="9">
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">シキ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t xml:space="preserve">テイギ </t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>java.util.List&lt;blanco.db.common.valueobject.BlancoDbDynamicConditionStructure&gt;</t>
+    <t>java.util.Map&lt;java.lang.String, blanco.db.common.valueobject.BlancoDbDynamicConditionFunctionStructure&gt;</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>new java.util.ArrayList&lt;blanco.db.common.valueobject.BlancoDbDynamicConditionStructure&gt;()</t>
+    <t>new java.util.HashMap&lt;java.lang.String, blanco.db.common.valueobject.BlancoDbDynamicConditionFunctionStructure&gt;()</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SQL動的条件式関数定義のマップ</t>
+    <rPh sb="3" eb="7">
+      <t xml:space="preserve">ドウテキジョウケｎ </t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t xml:space="preserve">シキ </t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t xml:space="preserve">カンスウ </t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t xml:space="preserve">テイギ </t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>dynamicConditionFunctionMap</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -856,12 +887,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -869,18 +912,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1224,10 +1255,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1294,12 +1325,12 @@
         <v>9</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
@@ -1400,23 +1431,23 @@
       <c r="F18"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
       <c r="F19"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="49"/>
-      <c r="B20" s="50"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
+      <c r="A20" s="50"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
       <c r="F20"/>
     </row>
     <row r="21" spans="1:6">
@@ -1453,29 +1484,29 @@
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1">
-      <c r="A25" s="49" t="s">
+      <c r="A25" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="51" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="28"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
       <c r="F26" s="29"/>
     </row>
     <row r="27" spans="1:6">
@@ -1495,8 +1526,8 @@
       <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="56">
-        <f t="shared" ref="A28:A43" si="0">A27+1</f>
+      <c r="A28" s="49">
+        <f t="shared" ref="A28:A44" si="0">A27+1</f>
         <v>2</v>
       </c>
       <c r="B28" s="32" t="s">
@@ -1506,13 +1537,13 @@
         <v>27</v>
       </c>
       <c r="D28" s="33"/>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="48" t="s">
         <v>30</v>
       </c>
       <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:6" ht="56.5" customHeight="1">
-      <c r="A29" s="56">
+      <c r="A29" s="49">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1523,13 +1554,13 @@
         <v>32</v>
       </c>
       <c r="D29" s="33"/>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="53"/>
+      <c r="F29" s="52"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="56">
+      <c r="A30" s="49">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1546,7 +1577,7 @@
       <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="56">
+      <c r="A31" s="49">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1563,7 +1594,7 @@
       <c r="F31" s="34"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="56">
+      <c r="A32" s="49">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1582,7 +1613,7 @@
       <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" ht="27" customHeight="1">
-      <c r="A33" s="56">
+      <c r="A33" s="49">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -1595,13 +1626,13 @@
       <c r="D33" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E33" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="F33" s="53"/>
+      <c r="F33" s="52"/>
     </row>
     <row r="34" spans="1:6" ht="27.5" customHeight="1">
-      <c r="A34" s="56">
+      <c r="A34" s="49">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -1614,13 +1645,13 @@
       <c r="D34" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="53" t="s">
+      <c r="E34" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="53"/>
+      <c r="F34" s="52"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="56">
+      <c r="A35" s="49">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1639,7 +1670,7 @@
       <c r="F35" s="34"/>
     </row>
     <row r="36" spans="1:6" ht="41.5" customHeight="1">
-      <c r="A36" s="56">
+      <c r="A36" s="49">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1650,13 +1681,13 @@
         <v>32</v>
       </c>
       <c r="D36" s="33"/>
-      <c r="E36" s="53" t="s">
+      <c r="E36" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="F36" s="53"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="1:6" ht="32" customHeight="1">
-      <c r="A37" s="56">
+      <c r="A37" s="49">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1669,13 +1700,13 @@
       <c r="D37" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="53" t="s">
+      <c r="E37" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="F37" s="53"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="56">
+      <c r="A38" s="49">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1694,7 +1725,7 @@
       <c r="F38" s="37"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="56">
+      <c r="A39" s="49">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1713,7 +1744,7 @@
       <c r="F39" s="37"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="56">
+      <c r="A40" s="49">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1732,7 +1763,7 @@
       <c r="F40" s="37"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="56">
+      <c r="A41" s="49">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1751,7 +1782,7 @@
       <c r="F41" s="37"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="56">
+      <c r="A42" s="49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1770,7 +1801,7 @@
       <c r="F42" s="37"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="56">
+      <c r="A43" s="49">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1778,46 +1809,73 @@
         <v>70</v>
       </c>
       <c r="C43" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D43" s="36" t="s">
+      <c r="E43" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="36" t="s">
-        <v>72</v>
-      </c>
       <c r="F43" s="37"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="47"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="39"/>
+      <c r="A44" s="49">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" s="37"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="49"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="37"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="47"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E36:F36"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D60" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D62" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/meta/program/BlancoDbSqlInfoStructure.xlsx
+++ b/meta/program/BlancoDbSqlInfoStructure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/blanco/blancoDbCommon/meta/program/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9EAEA-1C5C-C04A-A7BD-660A1D1FC44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C0AEBD-E6BF-1748-824E-7CB6670DF562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29860" yWindow="460" windowWidth="18020" windowHeight="19880" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29860" yWindow="500" windowWidth="18020" windowHeight="19880" tabRatio="640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valueObject" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="82">
   <si>
     <t>バリューオブジェクト定義書</t>
   </si>
@@ -395,6 +395,21 @@
   </si>
   <si>
     <t>dynamicConditionFunctionMap</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>MySQL専用。検索型の場合に先頭のSELECT の後ろに  MAX_EXECUTION_TIME オプティマイザ・ヒントが設定されます。デフォルトは60000ms。実行時に変更可能。</t>
+    <rPh sb="16" eb="17">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>useTimeoutHintMySQL</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -1255,10 +1270,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -1527,7 +1542,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="49">
-        <f t="shared" ref="A28:A44" si="0">A27+1</f>
+        <f t="shared" ref="A28:A45" si="0">A27+1</f>
         <v>2</v>
       </c>
       <c r="B28" s="32" t="s">
@@ -1839,20 +1854,39 @@
       <c r="F44" s="37"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="49"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
+      <c r="A45" s="49">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>80</v>
+      </c>
       <c r="F45" s="37"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="47"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="39"/>
+      <c r="A46" s="49"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="37"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="47"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1875,7 +1909,7 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <dataValidations disablePrompts="1" count="6">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D62" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D63" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>型</formula1>
       <formula2>0</formula2>
     </dataValidation>
